--- a/Data_preparation/datasets/final_data/NVIDIA_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/NVIDIA_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>CRWD</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42029</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>0.4636016765006184</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>0.5293505787849426</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>0.5399087732845833</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>0.45448322019344</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>24347000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>11256649220</v>
@@ -888,22 +780,22 @@
         <v>42120</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>0.5390969049603723</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>0.5330748558044434</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>0.5511411181343596</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>0.4909202819886819</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>24347000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>12112979848</v>
@@ -1007,22 +899,22 @@
         <v>42211</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>0.4866588576917522</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>0.5440124869346619</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>0.5795862766906059</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>0.4803669213712621</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>24347000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>10447960000</v>
@@ -1135,22 +1027,22 @@
         <v>42302</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>0.6916250665320051</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>0.7708484530448914</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>0.7761948350357134</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>0.671454707027059</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>24347000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>15410010000</v>
@@ -1263,22 +1155,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>0.7137665718164842</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>0.7649937868118286</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>0.7835331714896975</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>0.6037498721048875</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>24347000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>15758020000</v>
@@ -1382,22 +1274,22 @@
         <v>42491</v>
       </c>
       <c r="D7">
-        <v>12.96419415933219</v>
+        <v>0.8781987265865948</v>
       </c>
       <c r="E7">
-        <v>12.92498302459717</v>
+        <v>1.143837332725525</v>
       </c>
       <c r="F7">
-        <v>14.07681045801364</v>
+        <v>1.146285670760405</v>
       </c>
       <c r="G7">
-        <v>11.97901334738917</v>
+        <v>0.8422090213734176</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>24347000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>19257260000</v>
@@ -1510,22 +1402,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>1.407489974210975</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>1.505675435066223</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>1.558695654155838</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>1.36232461539904</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>24347000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>30491400000</v>
@@ -1638,22 +1530,22 @@
         <v>42673</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>1.756334030533547</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>2.267348051071167</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>2.342352353151048</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>1.637310506455994</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>24347000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>37749600000</v>
@@ -1766,22 +1658,22 @@
         <v>42764</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>2.72341255007313</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>2.499293804168701</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>2.978070694070083</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>2.356941417088456</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>24347000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>60244030000</v>
@@ -1894,22 +1786,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>2.582837923141818</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>3.559601545333862</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>3.624949117864806</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>2.522915286563916</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>24347000000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>61432700000</v>
@@ -2022,22 +1914,22 @@
         <v>42946</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>4.00225989959374</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>4.182711124420166</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>4.309100668030247</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>3.774659845002095</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>24347000000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>97812050000</v>
@@ -2150,22 +2042,22 @@
         <v>43037</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>5.172457752856373</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>4.958987236022949</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>5.402729379806347</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>4.724762739341751</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>24347000000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>121116000000</v>
@@ -2278,22 +2170,22 @@
         <v>43128</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>5.897262289691401</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>5.983303546905518</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>6.22980569137383</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>5.043776290344111</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>24347000000</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>147457980000</v>
@@ -2406,22 +2298,22 @@
         <v>43219</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>5.555807205017004</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>6.239119052886963</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>6.444706271171777</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>5.497173632023759</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>24347000000</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>136929650000</v>
@@ -2534,22 +2426,22 @@
         <v>43310</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>6.092963007280932</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>6.948250293731689</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>6.973995578263955</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>5.909527736947218</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>24347000000</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>152976140000</v>
@@ -2662,22 +2554,22 @@
         <v>43401</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>5.258371480907623</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>4.047930717468262</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>5.498627103393312</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>3.301900774778706</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>24347000000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>120560320000</v>
@@ -2790,22 +2682,22 @@
         <v>43492</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>3.582643338630164</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>3.824626684188842</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>4.097849788591541</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>3.535040189327395</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>24347000000</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>97691500000</v>
@@ -2918,22 +2810,22 @@
         <v>43583</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>4.544595380371072</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>3.36197280883789</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>4.588276380167989</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>3.360235490966609</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>24347000000</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>107922540000</v>
@@ -3046,22 +2938,22 @@
         <v>43674</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>4.202666232865935</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>4.16216516494751</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>4.30975788284301</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>3.662238416308913</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>24347000000</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>106617630000</v>
@@ -3174,22 +3066,22 @@
         <v>43765</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>4.964422297274594</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>5.390726089477539</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>5.506877897668168</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>4.939301764120212</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>24347000000</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>124564860000</v>
@@ -3302,22 +3194,22 @@
         <v>43856</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>5.866621848020344</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>6.722098350524902</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>7.873270450584467</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>5.860399391076736</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>24347000000</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>153293760000</v>
@@ -3430,22 +3322,22 @@
         <v>43947</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>7.08176428071292</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>8.84180736541748</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>9.14689537722265</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>6.994347431035929</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>24347000000</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>177229080000</v>
@@ -3558,22 +3450,22 @@
         <v>44038</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>10.69663803758115</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>13.32981014251709</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>13.52963971933032</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>10.67944561664404</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>24347000000</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>250784700000</v>
@@ -3686,22 +3578,22 @@
         <v>44129</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>12.61922874996378</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>13.36071491241455</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>14.64678901241372</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>12.35727870511663</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>24347000000</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>335407370000</v>
@@ -3814,22 +3706,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>13.01737104254144</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>13.67680358886719</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>15.330246261919</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>12.86728442287</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>24347000000</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>321626210000</v>
@@ -3942,22 +3834,22 @@
         <v>44318</v>
       </c>
       <c r="D27">
-        <v>67.30056631934143</v>
+        <v>15.08863484284466</v>
       </c>
       <c r="E27">
-        <v>69.52924346923828</v>
+        <v>16.20544242858887</v>
       </c>
       <c r="F27">
-        <v>72.48583215411878</v>
+        <v>16.23836403019814</v>
       </c>
       <c r="G27">
-        <v>65.86271341112901</v>
+        <v>13.42664005449409</v>
       </c>
       <c r="H27">
-        <v>199618386</v>
+        <v>24347000000</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>372235600000</v>
@@ -4070,22 +3962,22 @@
         <v>44409</v>
       </c>
       <c r="D28">
-        <v>254.2599945068359</v>
+        <v>19.65713514402224</v>
       </c>
       <c r="E28">
-        <v>281</v>
+        <v>22.3362922668457</v>
       </c>
       <c r="F28">
-        <v>289.239990234375</v>
+        <v>22.99285955249893</v>
       </c>
       <c r="G28">
-        <v>227.25</v>
+        <v>18.72117452752336</v>
       </c>
       <c r="H28">
-        <v>250955140</v>
+        <v>24347000000</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>485915080000</v>
@@ -4198,22 +4090,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>25.59771005461229</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>32.61065673828125</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>34.5777160144105</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>25.17655304160672</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>24347000000</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>638152320000</v>
@@ -4326,22 +4218,22 @@
         <v>44591</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>25.05685828421552</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>24.33920860290528</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>26.87443784756249</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>20.8507708873018</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>24347000000</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>571456800000</v>
@@ -4454,22 +4346,22 @@
         <v>44682</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>18.50933892148411</v>
       </c>
       <c r="E31">
-        <v>17.06999969482422</v>
+        <v>18.64011573791504</v>
       </c>
       <c r="F31">
-        <v>19.19000053405762</v>
+        <v>20.36516366321006</v>
       </c>
       <c r="G31">
-        <v>13.65999984741211</v>
+        <v>15.5404174802675</v>
       </c>
       <c r="H31">
-        <v>453568899</v>
+        <v>24347000000</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>465529700000</v>
@@ -4582,22 +4474,22 @@
         <v>44773</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>18.15478572494654</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>15.07140827178955</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>19.24515225937969</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>14.93661010133938</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>24347000000</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>454075000000</v>
@@ -4710,22 +4602,22 @@
         <v>44864</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>13.79442516241902</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>16.90269088745117</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>16.97759973622608</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>12.94045171299164</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>24347000000</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>344466600000</v>
@@ -4838,22 +4730,22 @@
         <v>44955</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>19.67240398882402</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>23.1940746307373</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>23.86544088440668</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>19.59247961629646</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>24347000000</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>500979000000</v>
@@ -4966,22 +4858,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>27.81842812694343</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>37.80468368530273</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>41.90550376267679</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>27.21889266011253</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>24347000000</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>685400300000</v>
@@ -5094,22 +4986,22 @@
         <v>45137</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>46.42881177243578</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>49.32186889648438</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>50.2322566659547</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>40.28394116435364</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>24347000000</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1154725000000</v>
@@ -5222,22 +5114,22 @@
         <v>45228</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>40.85991626068604</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>46.74245071411133</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>50.51822517131968</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>40.84492570638794</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>24347000000</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1000350000000</v>
@@ -5350,22 +5242,22 @@
         <v>45319</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>62.06887471690946</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>79.07234954833984</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>82.35270233203946</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>61.61910330161587</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>24347000000</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>1507465700000</v>
@@ -5478,22 +5370,22 @@
         <v>45410</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>85.03835422698414</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>109.5831985473633</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>115.7663853476814</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>81.21808428354018</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>24347000000</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2193375000000</v>
@@ -5606,22 +5498,22 @@
         <v>45501</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>117.486257609687</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>119.3255767822266</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>131.2111434412157</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>90.6562503200763</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>24347000000</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2781276000000</v>
@@ -5734,22 +5626,22 @@
         <v>45592</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>134.6613874226879</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>138.2103729248047</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>152.8461760008425</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>131.7622247614744</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>24347000000</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>3471976200000</v>
@@ -5862,22 +5754,22 @@
         <v>45683</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>114.725008510696</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>124.8927917480469</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>143.4087625347676</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>112.9853896023774</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>24347000000</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>3492763800000</v>
@@ -5990,22 +5882,22 @@
         <v>45774</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>113.065777256869</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>135.1130065917969</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>143.4719555798726</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>110.8060594111189</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>24347000000</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2708644000000</v>
@@ -6118,22 +6010,22 @@
         <v>45865</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>174.0801747550306</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>174.170166015625</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>184.4695879752146</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>168.7904799128549</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>24347000000</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>4233400000000</v>
